--- a/Mathematic_methods/lect12.xlsx
+++ b/Mathematic_methods/lect12.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LECTURES\Mathematic_methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egr\Documents\LECTURES\Mathematic_methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="41">
   <si>
     <t>-x2</t>
   </si>
@@ -183,8 +183,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -209,14 +215,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1173480" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -252,6 +258,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -298,7 +305,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -334,6 +341,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -357,14 +365,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1173480" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -400,6 +408,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -446,7 +455,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -482,6 +491,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -505,14 +515,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="403860" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -592,7 +602,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -654,14 +664,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1173480" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -697,6 +707,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -745,7 +756,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -781,6 +792,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -806,14 +818,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1173480" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -849,6 +861,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -897,7 +910,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -933,6 +946,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -958,14 +972,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1173480" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -1001,6 +1015,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1056,7 +1071,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -1092,6 +1107,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1381,809 +1397,834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G89"/>
+  <dimension ref="B2:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="1">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="P3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="O4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="P4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="O5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="R5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="O6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="P6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="O7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="P7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="O8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="P10" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="P12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="R12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="P14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="1">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+      <c r="T17" s="1">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="U17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+      <c r="S18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="L19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
+      <c r="N19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
+      <c r="S20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="L21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+      <c r="S21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+      <c r="S22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="1">
+      <c r="S23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="S25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
+    <row r="27" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="N27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
+      <c r="N29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="11:22" x14ac:dyDescent="0.25">
+      <c r="K32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="K36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="K37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
+    <row r="43" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="I47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="H48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="K49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="S25:T25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
